--- a/Message_Server/module/excel/new_5月出入金报表.xlsx
+++ b/Message_Server/module/excel/new_5月出入金报表.xlsx
@@ -275,6 +275,9 @@
     <t>娄总</t>
   </si>
   <si>
+    <t>秦爱华</t>
+  </si>
+  <si>
     <t>李锦荣</t>
   </si>
   <si>
@@ -294,9 +297,6 @@
   </si>
   <si>
     <t>申请时间：2018-05-14 13:05:59</t>
-  </si>
-  <si>
-    <t>秦爱华</t>
   </si>
   <si>
     <t>钟茂春</t>
@@ -2106,11 +2106,11 @@
       <c r="A69" t="s">
         <v>85</v>
       </c>
-      <c r="B69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" t="s">
-        <v>86</v>
+      <c r="B69" t="n">
+        <v>800</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>43244.5608449074</v>
       </c>
       <c r="D69" t="s">
         <v>84</v>
@@ -2124,97 +2124,113 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>87</v>
-      </c>
-      <c r="B70" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70" t="s">
-        <v>88</v>
+        <v>85</v>
+      </c>
+      <c r="B70" t="n">
+        <v>800</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>43237.3872337963</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B71" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>43249.4509143519</v>
-      </c>
-      <c r="D71" t="s"/>
-      <c r="E71" t="s"/>
+        <v>43234.6974421296</v>
+      </c>
+      <c r="D71" t="s">
+        <v>84</v>
+      </c>
+      <c r="E71" t="s">
+        <v>84</v>
+      </c>
       <c r="F71" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B72" t="n">
-        <v>1888</v>
+        <v>100</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>43248.2543171296</v>
-      </c>
-      <c r="D72" t="s"/>
-      <c r="E72" t="s"/>
+        <v>43234.6437037037</v>
+      </c>
+      <c r="D72" t="s">
+        <v>84</v>
+      </c>
+      <c r="E72" t="s">
+        <v>84</v>
+      </c>
       <c r="F72" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>89</v>
-      </c>
-      <c r="B73" t="n">
-        <v>400</v>
-      </c>
-      <c r="C73" s="1" t="n">
-        <v>43245.75332175931</v>
-      </c>
-      <c r="D73" t="s"/>
-      <c r="E73" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>87</v>
+      </c>
+      <c r="D73" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" t="s">
+        <v>84</v>
+      </c>
       <c r="F73" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" t="s">
         <v>89</v>
       </c>
-      <c r="B74" t="n">
-        <v>300</v>
-      </c>
-      <c r="C74" s="1" t="n">
-        <v>43237.8682291667</v>
-      </c>
-      <c r="D74" t="s"/>
-      <c r="E74" t="s"/>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
       <c r="F74" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B75" t="n">
         <v>200</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>43237.7148611111</v>
+        <v>43249.4509143519</v>
       </c>
       <c r="D75" t="s"/>
       <c r="E75" t="s"/>
@@ -2224,13 +2240,13 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B76" t="n">
-        <v>400</v>
+        <v>1888</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>43236.7833333333</v>
+        <v>43248.2543171296</v>
       </c>
       <c r="D76" t="s"/>
       <c r="E76" t="s"/>
@@ -2240,13 +2256,13 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>89</v>
-      </c>
-      <c r="B77" t="s">
         <v>90</v>
       </c>
-      <c r="C77" t="s">
-        <v>91</v>
+      <c r="B77" t="n">
+        <v>400</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>43245.75332175931</v>
       </c>
       <c r="D77" t="s"/>
       <c r="E77" t="s"/>
@@ -2256,69 +2272,77 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B78" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>43244.5608449074</v>
+        <v>43237.8682291667</v>
       </c>
       <c r="D78" t="s"/>
       <c r="E78" t="s"/>
-      <c r="F78" t="s"/>
+      <c r="F78" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B79" t="n">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>43237.4437615741</v>
+        <v>43237.7148611111</v>
       </c>
       <c r="D79" t="s"/>
       <c r="E79" t="s"/>
-      <c r="F79" t="s"/>
+      <c r="F79" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>43237.3872337963</v>
+        <v>43236.7833333333</v>
       </c>
       <c r="D80" t="s"/>
       <c r="E80" t="s"/>
-      <c r="F80" t="s"/>
+      <c r="F80" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" t="s">
         <v>92</v>
-      </c>
-      <c r="B81" t="n">
-        <v>500</v>
-      </c>
-      <c r="C81" s="1" t="n">
-        <v>43234.6974421296</v>
       </c>
       <c r="D81" t="s"/>
       <c r="E81" t="s"/>
-      <c r="F81" t="s"/>
+      <c r="F81" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B82" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>43234.6437037037</v>
+        <v>43237.4437615741</v>
       </c>
       <c r="D82" t="s"/>
       <c r="E82" t="s"/>
